--- a/doc/qa功能分析.xlsx
+++ b/doc/qa功能分析.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>模块</t>
   </si>
@@ -101,12 +101,36 @@
     <t>判断颜色是否是蓝色</t>
   </si>
   <si>
+    <t>get_datas</t>
+  </si>
+  <si>
     <t>获取所有颜色列表中相符的坐标</t>
   </si>
   <si>
     <t>qa_base</t>
   </si>
   <si>
+    <t>html_handle</t>
+  </si>
+  <si>
+    <t>处理html,将html变成可以xpath的格式</t>
+  </si>
+  <si>
+    <t>直接包装</t>
+  </si>
+  <si>
+    <t>img_handle</t>
+  </si>
+  <si>
+    <t>图片地址处理</t>
+  </si>
+  <si>
+    <t>trim_data</t>
+  </si>
+  <si>
+    <t>数据修剪</t>
+  </si>
+  <si>
     <t>get_title</t>
   </si>
   <si>
@@ -116,10 +140,37 @@
     <t>字符串清洗</t>
   </si>
   <si>
+    <t>get_text</t>
+  </si>
+  <si>
+    <t>get_img</t>
+  </si>
+  <si>
     <t>获取当前坐标的图片</t>
   </si>
   <si>
+    <t>have_child</t>
+  </si>
+  <si>
+    <t>have_img</t>
+  </si>
+  <si>
+    <t>to_html</t>
+  </si>
+  <si>
+    <t>get_pre</t>
+  </si>
+  <si>
+    <t>get_color</t>
+  </si>
+  <si>
+    <t>have_color</t>
+  </si>
+  <si>
     <t>判断颜色</t>
+  </si>
+  <si>
+    <t>data_clear</t>
   </si>
 </sst>
 </file>
@@ -127,12 +178,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,12 +193,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -170,61 +281,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,44 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -301,139 +345,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,42 +526,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,15 +536,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,6 +550,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,8 +601,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,173 +636,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,17 +1141,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="23.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="26.4444444444444" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="4" max="4" width="11.1018518518519" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.44444444444444" style="1" customWidth="1"/>
     <col min="6" max="19" width="9" style="1"/>
   </cols>
@@ -1203,73 +1247,125 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="3:3">
+    <row r="6" ht="28.8" spans="2:3">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:4">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
       <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="1" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="1" t="s">
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="1" t="s">
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="1" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
-        <v>29</v>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
